--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -417,16 +417,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="C2">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="D2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C3">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C4">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,10 +468,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2698</v>
+        <v>2689</v>
       </c>
       <c r="C5">
-        <v>2605</v>
+        <v>2596</v>
       </c>
       <c r="D5">
         <v>1012</v>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -31,7 +31,7 @@
     <t>Tier</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -417,13 +417,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="C2">
-        <v>1373</v>
+        <v>1435</v>
       </c>
       <c r="D2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>767</v>
+        <v>714</v>
       </c>
       <c r="C3">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="C4">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D4">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E4">
         <v>22</v>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C2">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D2">
         <v>553</v>
@@ -468,10 +468,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C5">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="D5">
         <v>1012</v>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -420,10 +420,10 @@
         <v>1469</v>
       </c>
       <c r="C2">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="D2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -471,10 +471,10 @@
         <v>2690</v>
       </c>
       <c r="C5">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="D5">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E5">
         <v>31</v>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -417,13 +417,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1469</v>
+        <v>1627</v>
       </c>
       <c r="C2">
-        <v>1426</v>
+        <v>1523</v>
       </c>
       <c r="D2">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -434,16 +434,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>714</v>
+        <v>580</v>
       </c>
       <c r="C3">
-        <v>675</v>
+        <v>566</v>
       </c>
       <c r="D3">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C4">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D4">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2690</v>
       </c>
       <c r="C5">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="D5">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C2">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D2">
         <v>584</v>
@@ -434,16 +434,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,16 +468,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="C5">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="D5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/summary_of_stocks.xlsx
+++ b/output/aggregate_tables/summary_of_stocks.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C2">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D2">
         <v>584</v>
@@ -437,10 +437,10 @@
         <v>579</v>
       </c>
       <c r="C3">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D3">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="C5">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="D5">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E5">
         <v>29</v>
